--- a/products/TIR_manuscript/Supplemental_Tables/Supplemental_Table_4.xlsx
+++ b/products/TIR_manuscript/Supplemental_Tables/Supplemental_Table_4.xlsx
@@ -1,105 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_Files\GCMP_TIR\immunity_microbiome\Supplemental_Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCC62423-0D98-4FEB-8652-956460013C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B42787-CC4B-48D4-99A0-93CADEF86653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{96362FC5-F700-4302-8BFC-D3D78F4B113A}"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{DB1EA2F7-56E0-4613-8E16-F6B7EE6590B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>Tissue Compartment</t>
-  </si>
-  <si>
-    <t>Initial Count</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Mucus</t>
-  </si>
-  <si>
-    <t>Number of Samples</t>
-  </si>
-  <si>
-    <t>Number of Features</t>
-  </si>
-  <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Counts of features and samples at each stage of processing. After initial quality control, Global Coral Microbiome Project (GCMP) samples were filtered with an expanded mitochondrial database to remove mitochondria. The resulting number of samples and features are shown in the 'After Mitochondria Removal' columns. Subsequently, samples were rarified to 1000 sequences per sample. Samples with fewer than 1000 reads were discarded. Finally, the coral species for each sample was compared against available coral genomes, and only those samples corresponding to sequenced coral species were retained. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Note: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">because not all GCMP samples were stony corals (e.g. outgroups, sediment and water samples), the number of samples in the All category is initially higher than the sum of coral mucus, tissue, and skeleton samples. However, once the results </t>
-    </r>
-  </si>
-  <si>
-    <t>After Mitochondria removal</t>
-  </si>
-  <si>
-    <t>After Rarefaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Matching to Sequenced Genomes </t>
-  </si>
-  <si>
-    <t>Supplemental Data Table 4A - Feature and Sample Counts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>ACR_Acropora_hyacinthus</t>
+  </si>
+  <si>
+    <t>ACR_Acropora_cytherea</t>
+  </si>
+  <si>
+    <t>POC_Pocillopora_damicornis</t>
+  </si>
+  <si>
+    <t>POC_Pocillopora_verrucosa</t>
+  </si>
+  <si>
+    <t>MER_Orbicella_faveolata</t>
+  </si>
+  <si>
+    <t>POC_Stylophora</t>
+  </si>
+  <si>
+    <t>OCU_Galaxea_fascicularis</t>
+  </si>
+  <si>
+    <t>POR_Porites_lutea</t>
+  </si>
+  <si>
+    <t>FUN_Fungia_fungites</t>
+  </si>
+  <si>
+    <t>ACR_Montipora_capitata</t>
+  </si>
+  <si>
+    <t>POR_Porites_rus</t>
+  </si>
+  <si>
+    <t>TIR</t>
+  </si>
+  <si>
+    <t>LRR</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Unique isofom copies of TIR, LRR, and Ig domains as annotated using Transdecoder to predict open reading frames followed by HMMER searched for the domains in the prediced reading frames.</t>
+  </si>
+  <si>
+    <t>Table S4: Distribution of unique TIR, LRR, and IG domain isoforms across sequenced coral genomes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,46 +91,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,29 +145,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,226 +472,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9618FB-44A9-46DE-8164-263C079606D7}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D7FC5C-6CB8-421F-AFBB-D8C6724D5DA4}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>426</v>
+      </c>
+      <c r="D4" s="3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>528</v>
+      </c>
+      <c r="D5" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>339</v>
+      </c>
+      <c r="D6" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>838</v>
+      </c>
+      <c r="D7" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>287</v>
+      </c>
+      <c r="D8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>549</v>
+      </c>
+      <c r="D9" s="3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>373</v>
+      </c>
+      <c r="D10" s="3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B11" s="3">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>454</v>
+      </c>
+      <c r="D11" s="3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B12" s="3">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>536</v>
+      </c>
+      <c r="D12" s="3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>612</v>
+      </c>
+      <c r="D13" s="3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1400</v>
-      </c>
-      <c r="C5" s="6">
-        <v>207213</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1385</v>
-      </c>
-      <c r="E5" s="7">
-        <v>196346</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1094</v>
-      </c>
-      <c r="G5" s="6">
-        <v>51852</v>
-      </c>
-      <c r="H5" s="5">
-        <v>11</v>
-      </c>
-      <c r="I5" s="6">
-        <v>7122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>435</v>
-      </c>
-      <c r="C6" s="6">
-        <v>39025</v>
-      </c>
-      <c r="D6" s="8">
-        <v>435</v>
-      </c>
-      <c r="E6" s="7">
-        <v>35948</v>
-      </c>
-      <c r="F6" s="5">
-        <v>310</v>
-      </c>
-      <c r="G6" s="6">
-        <v>12081</v>
-      </c>
-      <c r="H6" s="5">
-        <v>11</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>424</v>
-      </c>
-      <c r="C7" s="6">
-        <v>90406</v>
-      </c>
-      <c r="D7" s="8">
-        <v>423</v>
-      </c>
-      <c r="E7" s="7">
-        <v>85154</v>
-      </c>
-      <c r="F7" s="5">
-        <v>360</v>
-      </c>
-      <c r="G7" s="6">
-        <v>25235</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>3245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>413</v>
-      </c>
-      <c r="C8" s="6">
-        <v>96110</v>
-      </c>
-      <c r="D8" s="8">
-        <v>411</v>
-      </c>
-      <c r="E8" s="7">
-        <v>92210</v>
-      </c>
-      <c r="F8" s="5">
-        <v>364</v>
-      </c>
-      <c r="G8" s="6">
-        <v>24005</v>
-      </c>
-      <c r="H8" s="5">
-        <v>11</v>
-      </c>
-      <c r="I8" s="6">
-        <v>3589</v>
+      <c r="B14" s="3">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>519</v>
+      </c>
+      <c r="D14" s="3">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>